--- a/biology/Médecine/Ossification_endoconjonctive/Ossification_endoconjonctive.xlsx
+++ b/biology/Médecine/Ossification_endoconjonctive/Ossification_endoconjonctive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ossification endoconjonctive, également connue sous le nom d'ossification endomembraneuse, est un processus vital dans le développement osseux, particulièrement observé dans la formation des os plats tels que le crâne et la scapula, ainsi que dans l'épaississement des os longs comme le fémur et l'humérus.
 Au cours de l'embryogenèse, le mésenchyme, un tissu embryonnaire, subit une transformation complexe. Ce processus est caractérisé par une angiogenèse significative, où le mésenchyme se différencie en un tissu fortement vascularisé. Les cellules mésenchymateuses de type fibroblastique présentes dans la matrice extracellulaire, riche en collagène, se regroupent et évoluent vers un phénotype ostéoblastique, entraînant la sécrétion de protéines constituant la matrice osseuse.
